--- a/testbench/Test Plan/TEST_PLAN_de_ppreg.xlsx
+++ b/testbench/Test Plan/TEST_PLAN_de_ppreg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB249E03-622B-4964-8F64-21B6FB9A0208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B6BDE-1886-45C1-8CF3-C2C5E354CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,11 +15,11 @@
     <definedName name="Actual">(PeriodInActual*('TEST PLAN'!#REF!&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('TEST PLAN'!#REF!&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!)*('TEST PLAN'!#REF!&gt;0))*(('TEST PLAN'!A$4&lt;(INT('TEST PLAN'!#REF!+'TEST PLAN'!#REF!*'TEST PLAN'!$J1)))+('TEST PLAN'!A$4='TEST PLAN'!#REF!))*('TEST PLAN'!$J1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">('TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!)*('TEST PLAN'!#REF!&gt;0))*(('TEST PLAN'!A$4&lt;(INT('TEST PLAN'!#REF!+'TEST PLAN'!#REF!*'TEST PLAN'!$E1)))+('TEST PLAN'!A$4='TEST PLAN'!#REF!))*('TEST PLAN'!$E1&gt;0)</definedName>
     <definedName name="period_selected">'TEST PLAN'!#REF!</definedName>
     <definedName name="PeriodInActual">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!-1)</definedName>
-    <definedName name="PeriodInPlan">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!$C1,'TEST PLAN'!$C1+'TEST PLAN'!$D1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*('TEST PLAN'!$C1&gt;0)</definedName>
+    <definedName name="PeriodInPlan">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!$D1,'TEST PLAN'!$D1+'TEST PLAN'!#REF!-1)</definedName>
+    <definedName name="Plan">PeriodInPlan*('TEST PLAN'!$D1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TEST PLAN'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'TEST PLAN'!$B$3:$B$4</definedName>
   </definedNames>
@@ -43,18 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>INPUT (1)</t>
-  </si>
-  <si>
-    <t>INPUT(2)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">      STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          EXPECTED OUTPUT (1)</t>
   </si>
   <si>
     <t>SUCSSESS</t>
@@ -67,9 +58,6 @@
   </si>
   <si>
     <t>NOT TESTED</t>
-  </si>
-  <si>
-    <t>XXX TEST PLAN</t>
   </si>
   <si>
     <r>
@@ -91,29 +79,44 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">                 INPUT(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 INPUT(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              INPUT(5)</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
-    <t xml:space="preserve">       EXPECTED OUTPUT (2)</t>
+    <t>DE PIPLINE REGISTER TEST PLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">                 EXPECTED OUTPUT (3)</t>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Flushing</t>
+  </si>
+  <si>
+    <t>output = input @posedege CLK</t>
+  </si>
+  <si>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>INPUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        OUTPUTS</t>
+  </si>
+  <si>
+    <t>Outputs = DATA</t>
+  </si>
+  <si>
+    <t>Outputs = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -148,12 +151,14 @@
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -236,6 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -304,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -469,21 +482,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -495,10 +497,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,9 +509,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -570,7 +570,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,121 +628,109 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,6 +756,16 @@
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -909,16 +907,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1164,168 +1152,142 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR34"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="51" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1"/>
-    <col min="15" max="15" width="2.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.77734375" style="1"/>
-    <col min="19" max="19" width="20" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.77734375" style="1"/>
-    <col min="21" max="21" width="3.6640625" style="1" customWidth="1"/>
-    <col min="22" max="26" width="2.77734375" style="1"/>
-    <col min="27" max="27" width="11.5546875" style="1" customWidth="1"/>
-    <col min="28" max="30" width="2.77734375" style="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="27" customWidth="1"/>
+    <col min="6" max="9" width="2.77734375" style="1"/>
+    <col min="10" max="10" width="2.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.77734375" style="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" style="1"/>
+    <col min="16" max="16" width="3.6640625" style="1" customWidth="1"/>
+    <col min="17" max="21" width="2.77734375" style="1"/>
+    <col min="22" max="22" width="11.5546875" style="1" customWidth="1"/>
+    <col min="23" max="25" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:65" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="10"/>
-      <c r="AD1"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="10"/>
+      <c r="Y1"/>
     </row>
-    <row r="2" spans="1:70" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="50" t="s">
+      <c r="E2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+    </row>
+    <row r="3" spans="1:65" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-    </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="30" t="s">
-        <v>10</v>
-      </c>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="22"/>
+    <row r="4" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1335,11 +1297,11 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -1380,617 +1342,147 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
     </row>
-    <row r="5" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
-        <v>1</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+    <row r="5" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+    <row r="6" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="44"/>
+      <c r="F6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="47"/>
     </row>
-    <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
-        <v>2</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AH7" s="7"/>
+    <row r="7" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="53"/>
+      <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
-        <v>3</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
-        <v>4</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53">
-        <v>5</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53">
-        <v>6</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
-        <v>7</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
-        <v>8</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53">
-        <v>9</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53">
-        <v>10</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
-        <v>11</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53">
-        <v>12</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53">
-        <v>13</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53">
-        <v>14</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53">
-        <v>15</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+    <row r="8" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="44"/>
+      <c r="F8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
+  <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AC2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33">
-    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BR35">
-    <cfRule type="expression" dxfId="9" priority="3">
+  <conditionalFormatting sqref="B9:BM9">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K34 O5:BR34">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="F5:F8 J5:BM5 J7:BM7 J6 L6:BM6 J8 L8:BM8">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>K$4=period_selected</formula>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>F$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:BR4">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>K$4=period_selected</formula>
+  <conditionalFormatting sqref="F4:BM4">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>F$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A5 A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1098" yWindow="431" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AJ2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AE2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2019,6 +1511,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E7F311F653CF44E95AC47A60A52DC95" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0451a830a853a7f200515a3d5ff39cb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cdca2500-fabf-4293-ac73-9005bff1562e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3edac0ffe3dc3f9835ffad51fa159b8" ns3:_="">
     <xsd:import namespace="cdca2500-fabf-4293-ac73-9005bff1562e"/>
@@ -2208,15 +1709,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2224,6 +1716,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3388B11-EEA3-44E5-B34F-44C0C667C4B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2237,14 +1737,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
